--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/jku/pr_dke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6193090-4800-4938-B0AB-2662C102BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED0B14-2365-D440-B0F7-3AC615900E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6B661953-4818-4D2B-82C7-851E7DD31065}"/>
+    <workbookView xWindow="20860" yWindow="0" windowWidth="12740" windowHeight="21000" xr2:uid="{6B661953-4818-4D2B-82C7-851E7DD31065}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mitglied 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tobias Schwap" sheetId="1" r:id="rId1"/>
     <sheet name="Mitglied 2" sheetId="2" r:id="rId2"/>
     <sheet name="Mitglied 3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Name:</t>
   </si>
@@ -66,13 +66,34 @@
   <si>
     <t>Stunden</t>
   </si>
+  <si>
+    <t>Tobias Schwap</t>
+  </si>
+  <si>
+    <t>k11773648</t>
+  </si>
+  <si>
+    <t>Vorbesprechung</t>
+  </si>
+  <si>
+    <t>Team meeting, Konzept, Datenmodelle</t>
+  </si>
+  <si>
+    <t>Konzept Flottensystem, Mock-ups, Datenmodelle</t>
+  </si>
+  <si>
+    <t>Fleet project setup, datemodelle, mockups</t>
+  </si>
+  <si>
+    <t>Python/Flask tutorial, Projekt setup, routing, models</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,10 +143,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,33 +460,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A9FCA-F359-4E60-9E53-BC8A01C333EF}">
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
         <f>SUM(F5:F302)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -485,77 +514,115 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="1">
         <f>$C5-$B5</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F5" s="1">
         <f>E5*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="1">
         <f t="shared" ref="E6:E69" si="0">$C6-$B6</f>
-        <v>0</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:F69" si="1">E6*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
+        <v>5.0000000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.2499999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -569,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -583,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -597,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -611,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -625,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -639,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -653,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -667,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -681,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -695,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -709,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -723,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -737,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -751,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -765,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -779,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -793,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -807,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -821,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -835,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -849,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -863,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -877,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -891,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -905,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -919,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -933,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -947,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -961,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -975,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -989,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1003,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1017,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1031,7 +1098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1045,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1059,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1073,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1087,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1101,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1115,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1129,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1143,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1157,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1171,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1185,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1199,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1213,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1227,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1241,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1255,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1269,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1283,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1297,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1311,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1325,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1339,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1353,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1367,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1381,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1395,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1409,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1423,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1437,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1451,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1465,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1479,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1493,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1507,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1521,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1535,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1549,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1563,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -1577,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -1591,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -1605,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -1619,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -1633,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1647,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -1661,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -1675,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -1689,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -1703,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -1717,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -1731,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -1745,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -1759,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -1773,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -1787,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -1801,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -1815,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -1829,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -1843,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -1857,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -1871,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -1885,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -1899,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -1913,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -1927,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -1941,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -1955,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -1969,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -1983,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -1997,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2011,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2025,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2039,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2053,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2067,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2081,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2095,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2109,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2123,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2137,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2151,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2165,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2179,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2193,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2207,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2221,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2235,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2249,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2263,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2277,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2291,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2305,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2319,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2333,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2347,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -2361,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -2375,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -2389,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -2403,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -2417,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -2431,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -2445,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -2459,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -2473,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -2487,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -2501,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -2515,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -2529,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -2543,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -2557,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -2571,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -2585,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -2599,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -2613,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -2627,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -2641,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -2655,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -2669,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -2683,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -2697,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -2711,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -2725,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -2739,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -2753,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -2767,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -2781,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -2795,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -2809,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -2823,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -2837,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -2851,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -2865,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -2879,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -2893,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -2907,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -2921,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -2935,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -2949,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -2963,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -2977,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -2991,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3005,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3019,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3033,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3047,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3061,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3075,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3089,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3103,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3117,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3131,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3145,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3159,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3173,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3187,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3201,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3215,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3229,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3243,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3257,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3271,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3285,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3299,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3313,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3327,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3341,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3355,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3369,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3383,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3397,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3411,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3425,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3439,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3453,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3467,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3481,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3495,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3509,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3523,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3537,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3551,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3565,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3579,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3593,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3607,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3621,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3635,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3649,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3663,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -3677,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -3691,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -3705,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3719,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -3733,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -3747,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -3761,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -3775,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -3789,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -3803,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -3817,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -3831,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -3845,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -3859,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -3873,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -3887,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -3901,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -3915,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -3929,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -3943,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -3957,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -3971,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -3985,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -3999,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4013,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4027,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4041,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4055,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4069,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4083,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4097,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4111,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4125,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4139,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4153,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4167,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4181,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4195,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4209,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4223,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4237,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4251,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4265,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4279,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4293,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4307,7 +4374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4321,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4335,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4349,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -4363,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -4377,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -4391,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -4405,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -4419,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -4433,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -4447,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -4461,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -4475,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -4489,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -4503,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -4517,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -4531,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -4545,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -4559,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -4573,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -4587,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -4601,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -4615,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -4629,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -4643,7 +4710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -4671,12 +4738,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4688,12 +4755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4713,7 +4780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4727,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4741,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4755,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4769,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4783,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4797,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4811,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4825,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4839,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4853,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4867,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4881,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4895,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4909,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4923,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4937,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4951,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4965,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4979,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4993,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5007,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5021,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5035,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5049,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5063,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5077,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -5091,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5105,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5119,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5133,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5147,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5161,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5175,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5189,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -5203,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5217,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5231,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5245,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5259,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -5273,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5287,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5301,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -5315,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -5329,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5343,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5357,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5371,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5385,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5399,7 +5466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5413,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5427,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5441,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5455,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5469,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5483,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5497,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5511,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5525,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5539,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5553,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5567,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5581,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5595,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5609,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5623,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5637,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5651,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5665,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5679,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5693,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5707,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5721,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5735,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5749,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5763,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5777,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5791,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5805,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5819,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5833,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5847,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5861,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5875,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5889,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5903,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5917,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5931,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5945,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5959,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5973,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5987,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6001,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6015,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6029,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6043,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -6057,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -6071,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -6085,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -6099,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -6113,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -6127,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -6141,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -6155,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -6169,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -6183,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -6197,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -6211,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6225,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -6239,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -6253,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6267,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -6281,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -6295,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -6309,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -6323,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -6337,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -6351,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -6365,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -6379,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -6393,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -6407,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -6421,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -6435,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -6449,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -6463,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -6477,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -6491,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -6505,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -6519,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6533,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -6547,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -6561,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -6575,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -6589,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -6603,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -6617,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -6631,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -6645,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -6659,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -6673,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -6687,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -6701,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -6715,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -6729,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -6743,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -6757,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6771,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -6785,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -6799,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -6813,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -6827,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -6841,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -6855,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -6869,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -6883,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -6897,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -6911,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -6925,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -6939,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -6953,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -6967,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -6981,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -6995,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -7009,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -7023,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -7037,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -7051,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -7065,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -7079,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -7093,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -7107,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -7121,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -7135,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -7149,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -7163,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -7177,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -7191,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -7205,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -7219,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -7233,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -7247,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -7261,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -7275,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -7289,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -7303,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -7317,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -7331,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -7345,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -7359,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -7373,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -7387,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -7401,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -7415,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -7429,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -7443,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -7457,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -7471,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -7485,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -7499,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -7513,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -7527,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -7541,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -7555,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -7569,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -7583,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -7597,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -7611,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -7625,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -7639,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -7653,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -7667,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -7681,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -7695,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -7709,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -7723,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -7737,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -7751,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -7765,7 +7832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -7779,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -7793,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -7807,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -7821,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -7835,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -7849,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -7863,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -7877,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -7891,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -7905,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -7919,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -7933,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -7947,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7961,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7975,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7989,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -8003,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -8017,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -8031,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -8045,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -8059,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -8073,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -8087,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -8101,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -8115,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -8129,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -8143,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -8157,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -8171,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -8185,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -8199,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -8213,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -8227,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -8241,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -8255,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -8269,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -8283,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -8297,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -8311,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -8325,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -8339,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -8353,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -8367,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -8381,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -8395,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -8409,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -8423,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -8437,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -8451,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8465,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8479,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8493,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8507,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8521,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8535,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8549,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8563,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8577,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8591,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8605,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8619,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8633,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8647,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8661,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8675,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8689,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8703,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8717,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8731,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8745,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8759,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8773,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8787,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8801,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -8815,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -8829,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -8843,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -8857,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -8871,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -8895,16 +8962,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A1FB3F-F214-4F8C-AF50-02A242382E93}">
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8916,12 +8983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8941,7 +9008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -8955,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -8969,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -8983,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -8997,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -9011,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -9025,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -9039,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -9053,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -9067,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -9081,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -9095,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -9109,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -9123,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -9137,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -9151,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -9165,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -9179,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -9193,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -9207,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -9221,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -9235,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9249,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -9263,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -9277,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -9291,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -9305,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -9319,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -9333,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -9347,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -9361,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -9375,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -9389,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -9403,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -9417,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -9431,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -9445,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -9459,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -9473,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -9487,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -9501,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -9515,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9529,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -9543,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -9557,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -9571,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -9585,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9599,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -9613,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9627,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -9641,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9655,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -9669,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9683,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9697,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9711,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9725,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9739,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9753,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9767,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9781,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9795,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -9809,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9823,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -9837,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9851,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -9865,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -9879,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -9893,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -9907,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -9921,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -9935,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -9949,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -9963,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -9977,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -9991,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -10005,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -10019,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -10033,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -10047,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -10061,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -10075,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -10089,7 +10156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -10103,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -10117,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -10131,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -10145,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -10159,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -10173,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -10187,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -10201,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -10215,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -10229,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -10243,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -10257,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -10271,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -10285,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -10299,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -10313,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -10327,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -10341,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -10355,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -10369,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -10383,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -10397,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -10411,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -10425,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -10439,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -10453,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -10467,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -10481,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -10495,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -10509,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -10523,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -10537,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -10551,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -10565,7 +10632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -10579,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -10593,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -10607,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -10621,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -10635,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -10649,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -10663,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -10677,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -10691,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -10705,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -10719,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -10733,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -10747,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -10761,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -10775,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -10789,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -10803,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -10817,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -10831,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -10845,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -10859,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -10873,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -10887,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -10901,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -10915,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -10929,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -10943,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -10957,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -10971,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -10985,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -10999,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -11013,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -11027,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -11041,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -11055,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -11069,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -11083,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -11097,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -11111,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -11125,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -11139,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -11153,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -11167,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -11181,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -11195,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -11209,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -11223,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -11237,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -11251,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -11265,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -11279,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -11293,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -11307,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -11321,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -11335,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -11349,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -11363,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -11377,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -11391,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -11405,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -11419,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -11433,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -11447,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -11461,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -11475,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -11489,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -11503,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -11517,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -11531,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -11545,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -11559,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -11573,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -11587,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -11601,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -11615,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -11629,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -11643,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -11657,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -11671,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -11685,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -11699,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -11713,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -11727,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -11741,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -11755,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -11769,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -11783,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -11797,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -11811,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -11825,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -11839,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -11853,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -11867,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -11881,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -11895,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -11909,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -11923,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -11937,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -11951,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -11965,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -11979,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -11993,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -12007,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -12021,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -12035,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -12049,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -12063,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -12077,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -12091,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -12105,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -12119,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -12133,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -12147,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -12161,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -12175,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -12189,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -12203,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -12217,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -12231,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -12245,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -12259,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -12273,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -12287,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -12301,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -12315,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -12329,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -12343,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -12357,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -12371,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -12385,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -12399,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -12413,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -12427,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -12441,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -12455,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -12469,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -12483,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -12497,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -12511,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -12525,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -12539,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -12553,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -12567,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -12581,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -12595,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -12609,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -12623,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -12637,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -12651,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -12665,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -12679,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -12693,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -12707,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -12721,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -12735,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -12749,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -12763,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -12777,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -12791,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -12805,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -12819,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -12833,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -12847,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -12861,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -12875,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -12889,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -12903,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -12917,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -12931,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -12945,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -12959,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -12973,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -12987,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -13001,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -13015,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -13029,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -13043,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -13057,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -13071,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -13085,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -13099,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>

--- a/Zeitaufzeichnung.xlsx
+++ b/Zeitaufzeichnung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobi/Documents/jku/pr_dke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED0B14-2365-D440-B0F7-3AC615900E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B18F8-D9E8-BF4D-A592-F509D60782AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20860" yWindow="0" windowWidth="12740" windowHeight="21000" xr2:uid="{6B661953-4818-4D2B-82C7-851E7DD31065}"/>
+    <workbookView xWindow="20860" yWindow="500" windowWidth="12740" windowHeight="21000" xr2:uid="{6B661953-4818-4D2B-82C7-851E7DD31065}"/>
   </bookViews>
   <sheets>
     <sheet name="Tobias Schwap" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Name:</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Python/Flask tutorial, Projekt setup, routing, models</t>
+  </si>
+  <si>
+    <t>Flask tutorial, html template für flotten informationsystem</t>
   </si>
 </sst>
 </file>
@@ -460,15 +463,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528A9FCA-F359-4E60-9E53-BC8A01C333EF}">
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -483,7 +486,7 @@
       </c>
       <c r="D1">
         <f>SUM(F5:F302)</f>
-        <v>17.75</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -588,18 +591,18 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C8" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="1"/>
-        <v>2.0000000000000009</v>
+        <v>2.5000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -624,16 +627,22 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
